--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.012920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.012920.xlsx_with_dialog_acts.xlsx
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3243,12 +3243,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3453,12 +3453,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3831,12 +3831,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4003,12 +4003,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4087,12 +4087,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4339,12 +4339,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5809,12 +5809,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5977,12 +5977,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6061,12 +6061,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6187,12 +6187,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6355,12 +6355,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6523,12 +6523,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7241,12 +7241,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7409,12 +7409,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7623,12 +7623,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7665,12 +7665,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7917,12 +7917,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8001,12 +8001,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8043,12 +8043,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8127,12 +8127,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8253,12 +8253,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8337,12 +8337,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8379,12 +8379,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8761,12 +8761,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8975,12 +8975,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9101,12 +9101,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9227,12 +9227,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9269,12 +9269,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9395,12 +9395,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9437,12 +9437,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9815,12 +9815,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10075,12 +10075,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10369,12 +10369,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11171,12 +11171,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11213,12 +11213,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11259,12 +11259,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11301,12 +11301,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11431,12 +11431,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11473,12 +11473,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11515,12 +11515,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11767,12 +11767,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11977,12 +11977,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12107,12 +12107,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12149,12 +12149,12 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12317,12 +12317,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12401,12 +12401,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12527,12 +12527,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12569,12 +12569,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12779,12 +12779,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12821,12 +12821,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12989,12 +12989,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13619,12 +13619,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13787,12 +13787,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13913,12 +13913,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13955,12 +13955,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14165,12 +14165,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14291,12 +14291,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14375,12 +14375,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14585,12 +14585,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14669,12 +14669,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14711,12 +14711,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14921,12 +14921,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14963,12 +14963,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15887,12 +15887,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16013,12 +16013,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16643,12 +16643,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16937,12 +16937,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17063,12 +17063,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17273,12 +17273,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17819,12 +17819,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18113,12 +18113,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18911,12 +18911,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18995,12 +18995,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19163,12 +19163,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19373,12 +19373,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19457,12 +19457,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19499,12 +19499,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19709,12 +19709,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
